--- a/Testdata/LIVEHTA_931_Data.xlsx
+++ b/Testdata/LIVEHTA_931_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC67623B-B1B1-4387-B643-96065FFAC1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6577E3EF-E5B6-47D1-B31C-B564A5B36B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{EBA6B7B5-4164-47B4-905D-E5F060CAEA54}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
@@ -59,9 +59,6 @@
     <t>scenario1</t>
   </si>
   <si>
-    <t>Test723 - LIVEHTA_723 - 1/13/2023</t>
-  </si>
-  <si>
     <t>ExcelReport-LIVEHTA_723 - Test723-Clinical-</t>
   </si>
   <si>
@@ -111,6 +108,30 @@
   </si>
   <si>
     <t>Master-Extraction-Template-Oncology_With_control chars.xlsx</t>
+  </si>
+  <si>
+    <t>Report-</t>
+  </si>
+  <si>
+    <t>ExcelReport-LIVEHTA_723 - Test723-Economic-</t>
+  </si>
+  <si>
+    <t>WordReport-LIVEHTA_723 - Test723-Economic-</t>
+  </si>
+  <si>
+    <t>ExcelReport-LIVEHTA_723 - Test723-Quality of Life-</t>
+  </si>
+  <si>
+    <t>WordReport-LIVEHTA_723 - Test723-Quality of Life-</t>
+  </si>
+  <si>
+    <t>ExcelReport-LIVEHTA_723 - Test723-Real-world Evidence-</t>
+  </si>
+  <si>
+    <t>WordReport-LIVEHTA_723 - Test723-Real-world Evidence-</t>
+  </si>
+  <si>
+    <t>LIVEHTA_723 - Test723 - 1/13/2023</t>
   </si>
 </sst>
 </file>
@@ -462,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC4BC85-93C4-414B-BB49-484C6267FF39}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,7 +498,7 @@
     <col min="6" max="6" width="29.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="113.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="54.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -485,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -500,10 +521,10 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -514,28 +535,28 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
       <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>24</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -543,13 +564,13 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
       <c r="I3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -557,10 +578,13 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
-        <v>20</v>
+      <c r="I4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -568,13 +592,42 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
-        <v>22</v>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/Testdata/LIVEHTA_931_Data.xlsx
+++ b/Testdata/LIVEHTA_931_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6577E3EF-E5B6-47D1-B31C-B564A5B36B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1920084C-1BD9-4952-B01F-BB9EBD372CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{EBA6B7B5-4164-47B4-905D-E5F060CAEA54}"/>
   </bookViews>
@@ -59,18 +59,6 @@
     <t>scenario1</t>
   </si>
   <si>
-    <t>ExcelReport-LIVEHTA_723 - Test723-Clinical-</t>
-  </si>
-  <si>
-    <t>WordReport-LIVEHTA_723 - Test723-Clinical-</t>
-  </si>
-  <si>
-    <t>LIVEHTA_723 - Test723</t>
-  </si>
-  <si>
-    <t>LIVEHTA_723 - Test723_radio_button</t>
-  </si>
-  <si>
     <t>Clinical</t>
   </si>
   <si>
@@ -113,25 +101,37 @@
     <t>Report-</t>
   </si>
   <si>
-    <t>ExcelReport-LIVEHTA_723 - Test723-Economic-</t>
-  </si>
-  <si>
-    <t>WordReport-LIVEHTA_723 - Test723-Economic-</t>
-  </si>
-  <si>
-    <t>ExcelReport-LIVEHTA_723 - Test723-Quality of Life-</t>
-  </si>
-  <si>
-    <t>WordReport-LIVEHTA_723 - Test723-Quality of Life-</t>
-  </si>
-  <si>
-    <t>ExcelReport-LIVEHTA_723 - Test723-Real-world Evidence-</t>
-  </si>
-  <si>
-    <t>WordReport-LIVEHTA_723 - Test723-Real-world Evidence-</t>
-  </si>
-  <si>
-    <t>LIVEHTA_723 - Test723 - 1/13/2023</t>
+    <t>NewImportLogic_3 - Test_Automation_3 - 1/13/2023</t>
+  </si>
+  <si>
+    <t>NewImportLogic_3 - Test_Automation_3</t>
+  </si>
+  <si>
+    <t>NewImportLogic_3 - Test_Automation_3_radio_button</t>
+  </si>
+  <si>
+    <t>ExcelReport-NewImportLogic_3 - Test_Automation_3-Clinical-</t>
+  </si>
+  <si>
+    <t>WordReport-NewImportLogic_3 - Test_Automation_3-Clinical-</t>
+  </si>
+  <si>
+    <t>ExcelReport-NewImportLogic_3 - Test_Automation_3-Economic-</t>
+  </si>
+  <si>
+    <t>WordReport-NewImportLogic_3 - Test_Automation_3-Economic-</t>
+  </si>
+  <si>
+    <t>ExcelReport-NewImportLogic_3 - Test_Automation_3-Quality of Life-</t>
+  </si>
+  <si>
+    <t>WordReport-NewImportLogic_3 - Test_Automation_3-Quality of Life-</t>
+  </si>
+  <si>
+    <t>ExcelReport-NewImportLogic_3 - Test_Automation_3-Real-world Evidence-</t>
+  </si>
+  <si>
+    <t>WordReport-NewImportLogic_3 - Test_Automation_3-Real-world Evidence-</t>
   </si>
 </sst>
 </file>
@@ -475,7 +475,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -485,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC4BC85-93C4-414B-BB49-484C6267FF39}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -521,10 +521,10 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -535,28 +535,28 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -564,13 +564,13 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -578,13 +578,13 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -592,38 +592,38 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/LIVEHTA_931_Data.xlsx
+++ b/Testdata/LIVEHTA_931_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1920084C-1BD9-4952-B01F-BB9EBD372CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2820796F-F8FA-4CB0-AA6E-7387E71DE30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{EBA6B7B5-4164-47B4-905D-E5F060CAEA54}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -98,9 +98,6 @@
     <t>Master-Extraction-Template-Oncology_With_control chars.xlsx</t>
   </si>
   <si>
-    <t>Report-</t>
-  </si>
-  <si>
     <t>NewImportLogic_3 - Test_Automation_3 - 1/13/2023</t>
   </si>
   <si>
@@ -132,6 +129,18 @@
   </si>
   <si>
     <t>WordReport-NewImportLogic_3 - Test_Automation_3-Real-world Evidence-</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-NewImportLogic_3 - Test_Automation_3-Clinical-2023_</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-NewImportLogic_3 - Test_Automation_3-Economic-2023_</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-NewImportLogic_3 - Test_Automation_3-Quality of Life-2023_</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-NewImportLogic_3 - Test_Automation_3-Real-world Evidence-2023_</t>
   </si>
 </sst>
 </file>
@@ -483,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC4BC85-93C4-414B-BB49-484C6267FF39}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,7 +507,7 @@
     <col min="6" max="6" width="29.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="113.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="54.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="76.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -535,13 +544,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -556,7 +565,7 @@
         <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -570,7 +579,7 @@
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -584,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -598,32 +607,47 @@
         <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I10" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/LIVEHTA_931_Data.xlsx
+++ b/Testdata/LIVEHTA_931_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2820796F-F8FA-4CB0-AA6E-7387E71DE30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CE6B47-9283-445C-B9B5-6E28D62CA753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{EBA6B7B5-4164-47B4-905D-E5F060CAEA54}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>Master-Extraction-Template-Oncology_With_control chars.xlsx</t>
-  </si>
-  <si>
-    <t>NewImportLogic_3 - Test_Automation_3 - 1/13/2023</t>
   </si>
   <si>
     <t>NewImportLogic_3 - Test_Automation_3</t>
@@ -494,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC4BC85-93C4-414B-BB49-484C6267FF39}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -547,10 +544,10 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -565,7 +562,7 @@
         <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -579,7 +576,7 @@
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -593,7 +590,7 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -607,47 +604,47 @@
         <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/LIVEHTA_931_Data.xlsx
+++ b/Testdata/LIVEHTA_931_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CE6B47-9283-445C-B9B5-6E28D62CA753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90995204-CBF7-44E1-82EF-DC86FC763DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{EBA6B7B5-4164-47B4-905D-E5F060CAEA54}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EBA6B7B5-4164-47B4-905D-E5F060CAEA54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,28 +104,28 @@
     <t>NewImportLogic_3 - Test_Automation_3_radio_button</t>
   </si>
   <si>
-    <t>ExcelReport-NewImportLogic_3 - Test_Automation_3-Clinical-</t>
-  </si>
-  <si>
     <t>WordReport-NewImportLogic_3 - Test_Automation_3-Clinical-</t>
   </si>
   <si>
-    <t>ExcelReport-NewImportLogic_3 - Test_Automation_3-Economic-</t>
-  </si>
-  <si>
     <t>WordReport-NewImportLogic_3 - Test_Automation_3-Economic-</t>
   </si>
   <si>
-    <t>ExcelReport-NewImportLogic_3 - Test_Automation_3-Quality of Life-</t>
-  </si>
-  <si>
     <t>WordReport-NewImportLogic_3 - Test_Automation_3-Quality of Life-</t>
   </si>
   <si>
-    <t>ExcelReport-NewImportLogic_3 - Test_Automation_3-Real-world Evidence-</t>
-  </si>
-  <si>
     <t>WordReport-NewImportLogic_3 - Test_Automation_3-Real-world Evidence-</t>
+  </si>
+  <si>
+    <t>ExcelReport-NewImportLogic_3-Test_Automation_3-Clinical-</t>
+  </si>
+  <si>
+    <t>ExcelReport-NewImportLogic_3-Test_Automation_3-Economic-</t>
+  </si>
+  <si>
+    <t>ExcelReport-NewImportLogic_3-Test_Automation_3-Quality of Life-</t>
+  </si>
+  <si>
+    <t>ExcelReport-NewImportLogic_3-Test_Automation_3-Real-world Evidence-</t>
   </si>
   <si>
     <t>StandardExcelReport-NewImportLogic_3 - Test_Automation_3-Clinical-2023_</t>
@@ -491,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC4BC85-93C4-414B-BB49-484C6267FF39}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,7 +576,7 @@
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -590,7 +590,7 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -609,12 +609,12 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -624,12 +624,12 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -639,12 +639,12 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/LIVEHTA_931_Data.xlsx
+++ b/Testdata/LIVEHTA_931_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90995204-CBF7-44E1-82EF-DC86FC763DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26C78F2-B950-4AD4-8E90-7720F0EEA511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EBA6B7B5-4164-47B4-905D-E5F060CAEA54}"/>
   </bookViews>
@@ -128,16 +128,16 @@
     <t>ExcelReport-NewImportLogic_3-Test_Automation_3-Real-world Evidence-</t>
   </si>
   <si>
-    <t>StandardExcelReport-NewImportLogic_3 - Test_Automation_3-Clinical-2023_</t>
-  </si>
-  <si>
-    <t>StandardExcelReport-NewImportLogic_3 - Test_Automation_3-Economic-2023_</t>
-  </si>
-  <si>
-    <t>StandardExcelReport-NewImportLogic_3 - Test_Automation_3-Quality of Life-2023_</t>
-  </si>
-  <si>
-    <t>StandardExcelReport-NewImportLogic_3 - Test_Automation_3-Real-world Evidence-2023_</t>
+    <t>StandardExcelReport-NewImportLogic_3-Test_Automation_3-Clinical-2023_</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-NewImportLogic_3-Test_Automation_3-Economic-2023_</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-NewImportLogic_3-Test_Automation_3-Quality of Life-2023_</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-NewImportLogic_3-Test_Automation_3-Real-world Evidence-2023_</t>
   </si>
 </sst>
 </file>
